--- a/data/trans_dic/P56$familiar-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P56$familiar-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -739,7 +740,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,49; 80,81</t>
+          <t>16,74; 81,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +760,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,97; 65,85</t>
+          <t>9,73; 65,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +770,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,15</t>
+          <t>0,0; 65,5</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,05; 62,0</t>
+          <t>20,74; 63,98</t>
         </is>
       </c>
     </row>
@@ -879,7 +880,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,05; 59,25</t>
+          <t>11,02; 58,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +900,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,11; 65,83</t>
+          <t>17,89; 64,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +910,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,58</t>
+          <t>0,0; 47,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 63,87</t>
+          <t>0,0; 63,79</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,61; 51,61</t>
+          <t>18,67; 52,2</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,35; 84,6</t>
+          <t>12,96; 84,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,36; 85,61</t>
+          <t>13,23; 85,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1020,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>33,0; 75,12</t>
+          <t>32,06; 74,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 73,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,2; 70,77</t>
+          <t>10,23; 71,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>45,53; 77,5</t>
+          <t>46,04; 78,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,22; 63,79</t>
+          <t>7,91; 62,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,86; 65,29</t>
+          <t>17,77; 64,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>46,78; 72,07</t>
+          <t>46,76; 71,09</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,03; 34,85</t>
+          <t>5,95; 34,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,48; 39,7</t>
+          <t>10,49; 36,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,87; 39,41</t>
+          <t>9,93; 40,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>41,84; 64,69</t>
+          <t>42,4; 64,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 55,93</t>
+          <t>0,0; 59,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,52; 51,55</t>
+          <t>6,05; 49,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,06</t>
+          <t>0,0; 42,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,09; 60,31</t>
+          <t>34,15; 60,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,17; 29,46</t>
+          <t>6,76; 29,39</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,62; 35,8</t>
+          <t>13,93; 36,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,0; 33,62</t>
+          <t>8,42; 33,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>44,11; 60,71</t>
+          <t>43,16; 60,66</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,04; 64,09</t>
+          <t>7,88; 63,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,48; 59,95</t>
+          <t>12,38; 59,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,62; 41,34</t>
+          <t>10,45; 43,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28,13; 61,72</t>
+          <t>28,03; 61,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,76; 57,23</t>
+          <t>6,7; 55,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,06; 47,12</t>
+          <t>24,08; 47,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,8; 44,82</t>
+          <t>13,71; 47,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>49,0; 64,84</t>
+          <t>49,86; 64,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,89; 45,58</t>
+          <t>10,24; 46,63</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,72; 47,32</t>
+          <t>25,34; 47,24</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,95; 38,83</t>
+          <t>16,0; 38,74</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>47,98; 61,45</t>
+          <t>47,91; 61,75</t>
         </is>
       </c>
     </row>
@@ -1444,42 +1445,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,5; 28,8</t>
+          <t>9,45; 30,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,53; 35,86</t>
+          <t>18,82; 36,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,05; 40,54</t>
+          <t>20,38; 41,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>52,49; 66,63</t>
+          <t>51,25; 66,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,5; 28,8</t>
+          <t>9,45; 30,06</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>18,53; 35,86</t>
+          <t>18,82; 36,95</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>20,05; 40,54</t>
+          <t>20,38; 41,66</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>52,54; 66,33</t>
+          <t>53,04; 66,79</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,73; 33,45</t>
+          <t>11,14; 32,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,48; 38,19</t>
+          <t>16,3; 37,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,72; 26,4</t>
+          <t>9,78; 26,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>42,88; 58,26</t>
+          <t>43,58; 59,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,32; 27,37</t>
+          <t>11,23; 27,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,65; 36,61</t>
+          <t>23,44; 36,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,27; 34,4</t>
+          <t>18,36; 33,44</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>51,65; 60,41</t>
+          <t>51,97; 60,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,78; 26,39</t>
+          <t>13,33; 26,2</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>23,4; 34,15</t>
+          <t>23,5; 34,89</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,45; 29,09</t>
+          <t>17,46; 28,79</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>50,74; 58,25</t>
+          <t>50,73; 58,32</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda un familiar no conviviente cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2699</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1053</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2124</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1053</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4823</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1007</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1875</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1982</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>958; 4662</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 983</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3261</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1770</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>568; 3836</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1351</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4902</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2129</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2398; 7395</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2670</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1262</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3100</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2260</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5770</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 632</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3848</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3962</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>965; 5093</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1442</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1475</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4504</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1450; 5234</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1474</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4659</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5968</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3148; 8801</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2494</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3033</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7328</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4166</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11379</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>3530</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7199</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>18707</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>776; 5052</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>938; 6035</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1513</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4396; 10267</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3281</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1076; 7473</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1920</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8303; 14077</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>828; 6563</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3130; 11449</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1768</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>14844; 22571</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4571</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9758</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5098</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>27433</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1053</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4488</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3432</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>13409</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5624</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>14246</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>8531</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>40843</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1752; 10098</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4460; 15371</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2449; 10070</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>21429; 32653</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4390</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1101; 8970</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 9274</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>9626; 17078</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2490; 10817</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>8462; 22212</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3916; 15711</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>33980; 47754</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2801</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6514</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6217</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>8085</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4488</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>23174</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>9958</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>47134</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>7289</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>29688</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>16175</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>55219</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>807; 6550</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2246; 10877</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2683; 11153</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5088; 11228</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1157; 9599</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>15737; 31279</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4903; 16968</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>41307; 53186</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2816; 12825</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>21152; 39438</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>9828; 23803</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>48382; 62364</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2145</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>10430</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>28053</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>28756</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>61201</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>10430</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>28053</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>28756</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>63346</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1367; 2145</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5663; 18019</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>19501; 38288</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>19623; 40114</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>52900; 68170</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5663; 18019</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>19501; 38288</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>19623; 40114</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>55891; 70375</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>9866</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>20290</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>12314</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>50360</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>17006</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>60934</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>43407</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>138347</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>26873</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>81224</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>55722</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>188706</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>5379; 15524</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>12799; 29383</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>7052; 19077</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>43153; 58448</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>10506; 25341</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>47882; 75208</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>31316; 57040</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>127951; 149179</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>18898; 37160</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>66466; 98669</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>42374; 69871</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>175159; 201334</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P56$familiar-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P56$familiar-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
